--- a/assets/Correction_log_template.xlsx
+++ b/assets/Correction_log_template.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\.shortcut-targets-by-id\18SPDZFxVHaxHyf2DQo4pMMJpSEVK1xWz\Project ABC\DataFlow\04_Output\01_Logs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89055FBB-5519-42D5-BC4C-185BE150866E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B471573-99E9-417B-A7A4-8E796558FD43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Corrections" sheetId="1" r:id="rId1"/>
+    <sheet name="Dropped" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
   <si>
     <t>key</t>
   </si>
@@ -38,6 +39,9 @@
   </si>
   <si>
     <t>Result</t>
+  </si>
+  <si>
+    <t>Reason</t>
   </si>
 </sst>
 </file>
@@ -97,14 +101,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <color theme="0"/>
@@ -112,20 +109,6 @@
       <fill>
         <patternFill>
           <bgColor theme="6" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1803,11 +1786,36 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:F100000">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>$F2="Value could not be changed"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{012DE368-5203-49A4-9CE1-CF15AB7B23CA}">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="54.7109375" customWidth="1"/>
+    <col min="2" max="2" width="60.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/assets/Correction_log_template.xlsx
+++ b/assets/Correction_log_template.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\.shortcut-targets-by-id\18SPDZFxVHaxHyf2DQo4pMMJpSEVK1xWz\Project ABC\DataFlow\04_Output\01_Logs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mehrab Ali\Documents\GitHub\arceddataflow\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B471573-99E9-417B-A7A4-8E796558FD43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBFD3C1C-B4A2-49FF-A575-A7F767C1010A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/assets/Correction_log_template.xlsx
+++ b/assets/Correction_log_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mehrab Ali\Documents\GitHub\arceddataflow\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBFD3C1C-B4A2-49FF-A575-A7F767C1010A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8995119A-35A1-41D4-8406-65DD20B1E45C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -93,10 +93,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -430,1359 +431,1359 @@
   <cols>
     <col min="1" max="1" width="43" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="40.42578125" customWidth="1"/>
     <col min="6" max="6" width="34.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
     </row>
     <row r="17" spans="3:4">
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
     </row>
     <row r="18" spans="3:4">
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
     </row>
     <row r="19" spans="3:4">
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
     </row>
     <row r="20" spans="3:4">
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
     </row>
     <row r="21" spans="3:4">
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
     </row>
     <row r="22" spans="3:4">
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
     </row>
     <row r="23" spans="3:4">
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
     </row>
     <row r="24" spans="3:4">
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
     </row>
     <row r="25" spans="3:4">
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
     </row>
     <row r="26" spans="3:4">
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
     </row>
     <row r="27" spans="3:4">
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
     </row>
     <row r="28" spans="3:4">
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
     </row>
     <row r="29" spans="3:4">
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
     </row>
     <row r="30" spans="3:4">
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
     </row>
     <row r="31" spans="3:4">
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
     </row>
     <row r="32" spans="3:4">
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
     </row>
     <row r="33" spans="3:4">
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
     </row>
     <row r="34" spans="3:4">
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
     </row>
     <row r="35" spans="3:4">
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
     </row>
     <row r="36" spans="3:4">
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
     </row>
     <row r="37" spans="3:4">
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
     </row>
     <row r="38" spans="3:4">
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
     </row>
     <row r="39" spans="3:4">
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
     </row>
     <row r="40" spans="3:4">
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
     </row>
     <row r="41" spans="3:4">
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
     </row>
     <row r="42" spans="3:4">
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
     </row>
     <row r="43" spans="3:4">
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
     </row>
     <row r="44" spans="3:4">
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
     </row>
     <row r="45" spans="3:4">
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
     </row>
     <row r="46" spans="3:4">
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
     </row>
     <row r="47" spans="3:4">
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
     </row>
     <row r="48" spans="3:4">
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
     </row>
     <row r="49" spans="3:4">
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
     </row>
     <row r="50" spans="3:4">
-      <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
     </row>
     <row r="51" spans="3:4">
-      <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
     </row>
     <row r="52" spans="3:4">
-      <c r="C52" s="1"/>
-      <c r="D52" s="1"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
     </row>
     <row r="53" spans="3:4">
-      <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
+      <c r="C53" s="2"/>
+      <c r="D53" s="2"/>
     </row>
     <row r="54" spans="3:4">
-      <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
     </row>
     <row r="55" spans="3:4">
-      <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2"/>
     </row>
     <row r="56" spans="3:4">
-      <c r="C56" s="1"/>
-      <c r="D56" s="1"/>
+      <c r="C56" s="2"/>
+      <c r="D56" s="2"/>
     </row>
     <row r="57" spans="3:4">
-      <c r="C57" s="1"/>
-      <c r="D57" s="1"/>
+      <c r="C57" s="2"/>
+      <c r="D57" s="2"/>
     </row>
     <row r="58" spans="3:4">
-      <c r="C58" s="1"/>
-      <c r="D58" s="1"/>
+      <c r="C58" s="2"/>
+      <c r="D58" s="2"/>
     </row>
     <row r="59" spans="3:4">
-      <c r="C59" s="1"/>
-      <c r="D59" s="1"/>
+      <c r="C59" s="2"/>
+      <c r="D59" s="2"/>
     </row>
     <row r="60" spans="3:4">
-      <c r="C60" s="1"/>
-      <c r="D60" s="1"/>
+      <c r="C60" s="2"/>
+      <c r="D60" s="2"/>
     </row>
     <row r="61" spans="3:4">
-      <c r="C61" s="1"/>
-      <c r="D61" s="1"/>
+      <c r="C61" s="2"/>
+      <c r="D61" s="2"/>
     </row>
     <row r="62" spans="3:4">
-      <c r="C62" s="1"/>
-      <c r="D62" s="1"/>
+      <c r="C62" s="2"/>
+      <c r="D62" s="2"/>
     </row>
     <row r="63" spans="3:4">
-      <c r="C63" s="1"/>
-      <c r="D63" s="1"/>
+      <c r="C63" s="2"/>
+      <c r="D63" s="2"/>
     </row>
     <row r="64" spans="3:4">
-      <c r="C64" s="1"/>
-      <c r="D64" s="1"/>
+      <c r="C64" s="2"/>
+      <c r="D64" s="2"/>
     </row>
     <row r="65" spans="3:4">
-      <c r="C65" s="1"/>
-      <c r="D65" s="1"/>
+      <c r="C65" s="2"/>
+      <c r="D65" s="2"/>
     </row>
     <row r="66" spans="3:4">
-      <c r="C66" s="1"/>
-      <c r="D66" s="1"/>
+      <c r="C66" s="2"/>
+      <c r="D66" s="2"/>
     </row>
     <row r="67" spans="3:4">
-      <c r="C67" s="1"/>
-      <c r="D67" s="1"/>
+      <c r="C67" s="2"/>
+      <c r="D67" s="2"/>
     </row>
     <row r="68" spans="3:4">
-      <c r="C68" s="1"/>
-      <c r="D68" s="1"/>
+      <c r="C68" s="2"/>
+      <c r="D68" s="2"/>
     </row>
     <row r="69" spans="3:4">
-      <c r="C69" s="1"/>
-      <c r="D69" s="1"/>
+      <c r="C69" s="2"/>
+      <c r="D69" s="2"/>
     </row>
     <row r="70" spans="3:4">
-      <c r="C70" s="1"/>
-      <c r="D70" s="1"/>
+      <c r="C70" s="2"/>
+      <c r="D70" s="2"/>
     </row>
     <row r="71" spans="3:4">
-      <c r="C71" s="1"/>
-      <c r="D71" s="1"/>
+      <c r="C71" s="2"/>
+      <c r="D71" s="2"/>
     </row>
     <row r="72" spans="3:4">
-      <c r="C72" s="1"/>
-      <c r="D72" s="1"/>
+      <c r="C72" s="2"/>
+      <c r="D72" s="2"/>
     </row>
     <row r="73" spans="3:4">
-      <c r="C73" s="1"/>
-      <c r="D73" s="1"/>
+      <c r="C73" s="2"/>
+      <c r="D73" s="2"/>
     </row>
     <row r="74" spans="3:4">
-      <c r="C74" s="1"/>
-      <c r="D74" s="1"/>
+      <c r="C74" s="2"/>
+      <c r="D74" s="2"/>
     </row>
     <row r="75" spans="3:4">
-      <c r="C75" s="1"/>
-      <c r="D75" s="1"/>
+      <c r="C75" s="2"/>
+      <c r="D75" s="2"/>
     </row>
     <row r="76" spans="3:4">
-      <c r="C76" s="1"/>
-      <c r="D76" s="1"/>
+      <c r="C76" s="2"/>
+      <c r="D76" s="2"/>
     </row>
     <row r="77" spans="3:4">
-      <c r="C77" s="1"/>
-      <c r="D77" s="1"/>
+      <c r="C77" s="2"/>
+      <c r="D77" s="2"/>
     </row>
     <row r="78" spans="3:4">
-      <c r="C78" s="1"/>
-      <c r="D78" s="1"/>
+      <c r="C78" s="2"/>
+      <c r="D78" s="2"/>
     </row>
     <row r="79" spans="3:4">
-      <c r="C79" s="1"/>
-      <c r="D79" s="1"/>
+      <c r="C79" s="2"/>
+      <c r="D79" s="2"/>
     </row>
     <row r="80" spans="3:4">
-      <c r="C80" s="1"/>
-      <c r="D80" s="1"/>
+      <c r="C80" s="2"/>
+      <c r="D80" s="2"/>
     </row>
     <row r="81" spans="3:4">
-      <c r="C81" s="1"/>
-      <c r="D81" s="1"/>
+      <c r="C81" s="2"/>
+      <c r="D81" s="2"/>
     </row>
     <row r="82" spans="3:4">
-      <c r="C82" s="1"/>
-      <c r="D82" s="1"/>
+      <c r="C82" s="2"/>
+      <c r="D82" s="2"/>
     </row>
     <row r="83" spans="3:4">
-      <c r="C83" s="1"/>
-      <c r="D83" s="1"/>
+      <c r="C83" s="2"/>
+      <c r="D83" s="2"/>
     </row>
     <row r="84" spans="3:4">
-      <c r="C84" s="1"/>
-      <c r="D84" s="1"/>
+      <c r="C84" s="2"/>
+      <c r="D84" s="2"/>
     </row>
     <row r="85" spans="3:4">
-      <c r="C85" s="1"/>
-      <c r="D85" s="1"/>
+      <c r="C85" s="2"/>
+      <c r="D85" s="2"/>
     </row>
     <row r="86" spans="3:4">
-      <c r="C86" s="1"/>
-      <c r="D86" s="1"/>
+      <c r="C86" s="2"/>
+      <c r="D86" s="2"/>
     </row>
     <row r="87" spans="3:4">
-      <c r="C87" s="1"/>
-      <c r="D87" s="1"/>
+      <c r="C87" s="2"/>
+      <c r="D87" s="2"/>
     </row>
     <row r="88" spans="3:4">
-      <c r="C88" s="1"/>
-      <c r="D88" s="1"/>
+      <c r="C88" s="2"/>
+      <c r="D88" s="2"/>
     </row>
     <row r="89" spans="3:4">
-      <c r="C89" s="1"/>
-      <c r="D89" s="1"/>
+      <c r="C89" s="2"/>
+      <c r="D89" s="2"/>
     </row>
     <row r="90" spans="3:4">
-      <c r="C90" s="1"/>
-      <c r="D90" s="1"/>
+      <c r="C90" s="2"/>
+      <c r="D90" s="2"/>
     </row>
     <row r="91" spans="3:4">
-      <c r="C91" s="1"/>
-      <c r="D91" s="1"/>
+      <c r="C91" s="2"/>
+      <c r="D91" s="2"/>
     </row>
     <row r="92" spans="3:4">
-      <c r="C92" s="1"/>
-      <c r="D92" s="1"/>
+      <c r="C92" s="2"/>
+      <c r="D92" s="2"/>
     </row>
     <row r="93" spans="3:4">
-      <c r="C93" s="1"/>
-      <c r="D93" s="1"/>
+      <c r="C93" s="2"/>
+      <c r="D93" s="2"/>
     </row>
     <row r="94" spans="3:4">
-      <c r="C94" s="1"/>
-      <c r="D94" s="1"/>
+      <c r="C94" s="2"/>
+      <c r="D94" s="2"/>
     </row>
     <row r="95" spans="3:4">
-      <c r="C95" s="1"/>
-      <c r="D95" s="1"/>
+      <c r="C95" s="2"/>
+      <c r="D95" s="2"/>
     </row>
     <row r="96" spans="3:4">
-      <c r="C96" s="1"/>
-      <c r="D96" s="1"/>
+      <c r="C96" s="2"/>
+      <c r="D96" s="2"/>
     </row>
     <row r="97" spans="3:4">
-      <c r="C97" s="1"/>
-      <c r="D97" s="1"/>
+      <c r="C97" s="2"/>
+      <c r="D97" s="2"/>
     </row>
     <row r="98" spans="3:4">
-      <c r="C98" s="1"/>
-      <c r="D98" s="1"/>
+      <c r="C98" s="2"/>
+      <c r="D98" s="2"/>
     </row>
     <row r="99" spans="3:4">
-      <c r="C99" s="1"/>
-      <c r="D99" s="1"/>
+      <c r="C99" s="2"/>
+      <c r="D99" s="2"/>
     </row>
     <row r="100" spans="3:4">
-      <c r="C100" s="1"/>
-      <c r="D100" s="1"/>
+      <c r="C100" s="2"/>
+      <c r="D100" s="2"/>
     </row>
     <row r="101" spans="3:4">
-      <c r="C101" s="1"/>
-      <c r="D101" s="1"/>
+      <c r="C101" s="2"/>
+      <c r="D101" s="2"/>
     </row>
     <row r="102" spans="3:4">
-      <c r="C102" s="1"/>
-      <c r="D102" s="1"/>
+      <c r="C102" s="2"/>
+      <c r="D102" s="2"/>
     </row>
     <row r="103" spans="3:4">
-      <c r="C103" s="1"/>
-      <c r="D103" s="1"/>
+      <c r="C103" s="2"/>
+      <c r="D103" s="2"/>
     </row>
     <row r="104" spans="3:4">
-      <c r="C104" s="1"/>
-      <c r="D104" s="1"/>
+      <c r="C104" s="2"/>
+      <c r="D104" s="2"/>
     </row>
     <row r="105" spans="3:4">
-      <c r="C105" s="1"/>
-      <c r="D105" s="1"/>
+      <c r="C105" s="2"/>
+      <c r="D105" s="2"/>
     </row>
     <row r="106" spans="3:4">
-      <c r="C106" s="1"/>
-      <c r="D106" s="1"/>
+      <c r="C106" s="2"/>
+      <c r="D106" s="2"/>
     </row>
     <row r="107" spans="3:4">
-      <c r="C107" s="1"/>
-      <c r="D107" s="1"/>
+      <c r="C107" s="2"/>
+      <c r="D107" s="2"/>
     </row>
     <row r="108" spans="3:4">
-      <c r="C108" s="1"/>
-      <c r="D108" s="1"/>
+      <c r="C108" s="2"/>
+      <c r="D108" s="2"/>
     </row>
     <row r="109" spans="3:4">
-      <c r="C109" s="1"/>
-      <c r="D109" s="1"/>
+      <c r="C109" s="2"/>
+      <c r="D109" s="2"/>
     </row>
     <row r="110" spans="3:4">
-      <c r="C110" s="1"/>
-      <c r="D110" s="1"/>
+      <c r="C110" s="2"/>
+      <c r="D110" s="2"/>
     </row>
     <row r="111" spans="3:4">
-      <c r="C111" s="1"/>
-      <c r="D111" s="1"/>
+      <c r="C111" s="2"/>
+      <c r="D111" s="2"/>
     </row>
     <row r="112" spans="3:4">
-      <c r="C112" s="1"/>
-      <c r="D112" s="1"/>
+      <c r="C112" s="2"/>
+      <c r="D112" s="2"/>
     </row>
     <row r="113" spans="3:4">
-      <c r="C113" s="1"/>
-      <c r="D113" s="1"/>
+      <c r="C113" s="2"/>
+      <c r="D113" s="2"/>
     </row>
     <row r="114" spans="3:4">
-      <c r="C114" s="1"/>
-      <c r="D114" s="1"/>
+      <c r="C114" s="2"/>
+      <c r="D114" s="2"/>
     </row>
     <row r="115" spans="3:4">
-      <c r="C115" s="1"/>
-      <c r="D115" s="1"/>
+      <c r="C115" s="2"/>
+      <c r="D115" s="2"/>
     </row>
     <row r="116" spans="3:4">
-      <c r="C116" s="1"/>
-      <c r="D116" s="1"/>
+      <c r="C116" s="2"/>
+      <c r="D116" s="2"/>
     </row>
     <row r="117" spans="3:4">
-      <c r="C117" s="1"/>
-      <c r="D117" s="1"/>
+      <c r="C117" s="2"/>
+      <c r="D117" s="2"/>
     </row>
     <row r="118" spans="3:4">
-      <c r="C118" s="1"/>
-      <c r="D118" s="1"/>
+      <c r="C118" s="2"/>
+      <c r="D118" s="2"/>
     </row>
     <row r="119" spans="3:4">
-      <c r="C119" s="1"/>
-      <c r="D119" s="1"/>
+      <c r="C119" s="2"/>
+      <c r="D119" s="2"/>
     </row>
     <row r="120" spans="3:4">
-      <c r="C120" s="1"/>
-      <c r="D120" s="1"/>
+      <c r="C120" s="2"/>
+      <c r="D120" s="2"/>
     </row>
     <row r="121" spans="3:4">
-      <c r="C121" s="1"/>
-      <c r="D121" s="1"/>
+      <c r="C121" s="2"/>
+      <c r="D121" s="2"/>
     </row>
     <row r="122" spans="3:4">
-      <c r="C122" s="1"/>
-      <c r="D122" s="1"/>
+      <c r="C122" s="2"/>
+      <c r="D122" s="2"/>
     </row>
     <row r="123" spans="3:4">
-      <c r="C123" s="1"/>
-      <c r="D123" s="1"/>
+      <c r="C123" s="2"/>
+      <c r="D123" s="2"/>
     </row>
     <row r="124" spans="3:4">
-      <c r="C124" s="1"/>
-      <c r="D124" s="1"/>
+      <c r="C124" s="2"/>
+      <c r="D124" s="2"/>
     </row>
     <row r="125" spans="3:4">
-      <c r="C125" s="1"/>
-      <c r="D125" s="1"/>
+      <c r="C125" s="2"/>
+      <c r="D125" s="2"/>
     </row>
     <row r="126" spans="3:4">
-      <c r="C126" s="1"/>
-      <c r="D126" s="1"/>
+      <c r="C126" s="2"/>
+      <c r="D126" s="2"/>
     </row>
     <row r="127" spans="3:4">
-      <c r="C127" s="1"/>
-      <c r="D127" s="1"/>
+      <c r="C127" s="2"/>
+      <c r="D127" s="2"/>
     </row>
     <row r="128" spans="3:4">
-      <c r="C128" s="1"/>
-      <c r="D128" s="1"/>
+      <c r="C128" s="2"/>
+      <c r="D128" s="2"/>
     </row>
     <row r="129" spans="3:4">
-      <c r="C129" s="1"/>
-      <c r="D129" s="1"/>
+      <c r="C129" s="2"/>
+      <c r="D129" s="2"/>
     </row>
     <row r="130" spans="3:4">
-      <c r="C130" s="1"/>
-      <c r="D130" s="1"/>
+      <c r="C130" s="2"/>
+      <c r="D130" s="2"/>
     </row>
     <row r="131" spans="3:4">
-      <c r="C131" s="1"/>
-      <c r="D131" s="1"/>
+      <c r="C131" s="2"/>
+      <c r="D131" s="2"/>
     </row>
     <row r="132" spans="3:4">
-      <c r="C132" s="1"/>
-      <c r="D132" s="1"/>
+      <c r="C132" s="2"/>
+      <c r="D132" s="2"/>
     </row>
     <row r="133" spans="3:4">
-      <c r="C133" s="1"/>
-      <c r="D133" s="1"/>
+      <c r="C133" s="2"/>
+      <c r="D133" s="2"/>
     </row>
     <row r="134" spans="3:4">
-      <c r="C134" s="1"/>
-      <c r="D134" s="1"/>
+      <c r="C134" s="2"/>
+      <c r="D134" s="2"/>
     </row>
     <row r="135" spans="3:4">
-      <c r="C135" s="1"/>
-      <c r="D135" s="1"/>
+      <c r="C135" s="2"/>
+      <c r="D135" s="2"/>
     </row>
     <row r="136" spans="3:4">
-      <c r="C136" s="1"/>
-      <c r="D136" s="1"/>
+      <c r="C136" s="2"/>
+      <c r="D136" s="2"/>
     </row>
     <row r="137" spans="3:4">
-      <c r="C137" s="1"/>
-      <c r="D137" s="1"/>
+      <c r="C137" s="2"/>
+      <c r="D137" s="2"/>
     </row>
     <row r="138" spans="3:4">
-      <c r="C138" s="1"/>
-      <c r="D138" s="1"/>
+      <c r="C138" s="2"/>
+      <c r="D138" s="2"/>
     </row>
     <row r="139" spans="3:4">
-      <c r="C139" s="1"/>
-      <c r="D139" s="1"/>
+      <c r="C139" s="2"/>
+      <c r="D139" s="2"/>
     </row>
     <row r="140" spans="3:4">
-      <c r="C140" s="1"/>
-      <c r="D140" s="1"/>
+      <c r="C140" s="2"/>
+      <c r="D140" s="2"/>
     </row>
     <row r="141" spans="3:4">
-      <c r="C141" s="1"/>
-      <c r="D141" s="1"/>
+      <c r="C141" s="2"/>
+      <c r="D141" s="2"/>
     </row>
     <row r="142" spans="3:4">
-      <c r="C142" s="1"/>
-      <c r="D142" s="1"/>
+      <c r="C142" s="2"/>
+      <c r="D142" s="2"/>
     </row>
     <row r="143" spans="3:4">
-      <c r="C143" s="1"/>
-      <c r="D143" s="1"/>
+      <c r="C143" s="2"/>
+      <c r="D143" s="2"/>
     </row>
     <row r="144" spans="3:4">
-      <c r="C144" s="1"/>
-      <c r="D144" s="1"/>
+      <c r="C144" s="2"/>
+      <c r="D144" s="2"/>
     </row>
     <row r="145" spans="3:4">
-      <c r="C145" s="1"/>
-      <c r="D145" s="1"/>
+      <c r="C145" s="2"/>
+      <c r="D145" s="2"/>
     </row>
     <row r="146" spans="3:4">
-      <c r="C146" s="1"/>
-      <c r="D146" s="1"/>
+      <c r="C146" s="2"/>
+      <c r="D146" s="2"/>
     </row>
     <row r="147" spans="3:4">
-      <c r="C147" s="1"/>
-      <c r="D147" s="1"/>
+      <c r="C147" s="2"/>
+      <c r="D147" s="2"/>
     </row>
     <row r="148" spans="3:4">
-      <c r="C148" s="1"/>
-      <c r="D148" s="1"/>
+      <c r="C148" s="2"/>
+      <c r="D148" s="2"/>
     </row>
     <row r="149" spans="3:4">
-      <c r="C149" s="1"/>
-      <c r="D149" s="1"/>
+      <c r="C149" s="2"/>
+      <c r="D149" s="2"/>
     </row>
     <row r="150" spans="3:4">
-      <c r="C150" s="1"/>
-      <c r="D150" s="1"/>
+      <c r="C150" s="2"/>
+      <c r="D150" s="2"/>
     </row>
     <row r="151" spans="3:4">
-      <c r="C151" s="1"/>
-      <c r="D151" s="1"/>
+      <c r="C151" s="2"/>
+      <c r="D151" s="2"/>
     </row>
     <row r="152" spans="3:4">
-      <c r="C152" s="1"/>
-      <c r="D152" s="1"/>
+      <c r="C152" s="2"/>
+      <c r="D152" s="2"/>
     </row>
     <row r="153" spans="3:4">
-      <c r="C153" s="1"/>
-      <c r="D153" s="1"/>
+      <c r="C153" s="2"/>
+      <c r="D153" s="2"/>
     </row>
     <row r="154" spans="3:4">
-      <c r="C154" s="1"/>
-      <c r="D154" s="1"/>
+      <c r="C154" s="2"/>
+      <c r="D154" s="2"/>
     </row>
     <row r="155" spans="3:4">
-      <c r="C155" s="1"/>
-      <c r="D155" s="1"/>
+      <c r="C155" s="2"/>
+      <c r="D155" s="2"/>
     </row>
     <row r="156" spans="3:4">
-      <c r="C156" s="1"/>
-      <c r="D156" s="1"/>
+      <c r="C156" s="2"/>
+      <c r="D156" s="2"/>
     </row>
     <row r="157" spans="3:4">
-      <c r="C157" s="1"/>
-      <c r="D157" s="1"/>
+      <c r="C157" s="2"/>
+      <c r="D157" s="2"/>
     </row>
     <row r="158" spans="3:4">
-      <c r="C158" s="1"/>
-      <c r="D158" s="1"/>
+      <c r="C158" s="2"/>
+      <c r="D158" s="2"/>
     </row>
     <row r="159" spans="3:4">
-      <c r="C159" s="1"/>
-      <c r="D159" s="1"/>
+      <c r="C159" s="2"/>
+      <c r="D159" s="2"/>
     </row>
     <row r="160" spans="3:4">
-      <c r="C160" s="1"/>
-      <c r="D160" s="1"/>
+      <c r="C160" s="2"/>
+      <c r="D160" s="2"/>
     </row>
     <row r="161" spans="3:4">
-      <c r="C161" s="1"/>
-      <c r="D161" s="1"/>
+      <c r="C161" s="2"/>
+      <c r="D161" s="2"/>
     </row>
     <row r="162" spans="3:4">
-      <c r="C162" s="1"/>
-      <c r="D162" s="1"/>
+      <c r="C162" s="2"/>
+      <c r="D162" s="2"/>
     </row>
     <row r="163" spans="3:4">
-      <c r="C163" s="1"/>
-      <c r="D163" s="1"/>
+      <c r="C163" s="2"/>
+      <c r="D163" s="2"/>
     </row>
     <row r="164" spans="3:4">
-      <c r="C164" s="1"/>
-      <c r="D164" s="1"/>
+      <c r="C164" s="2"/>
+      <c r="D164" s="2"/>
     </row>
     <row r="165" spans="3:4">
-      <c r="C165" s="1"/>
-      <c r="D165" s="1"/>
+      <c r="C165" s="2"/>
+      <c r="D165" s="2"/>
     </row>
     <row r="166" spans="3:4">
-      <c r="C166" s="1"/>
-      <c r="D166" s="1"/>
+      <c r="C166" s="2"/>
+      <c r="D166" s="2"/>
     </row>
     <row r="167" spans="3:4">
-      <c r="C167" s="1"/>
-      <c r="D167" s="1"/>
+      <c r="C167" s="2"/>
+      <c r="D167" s="2"/>
     </row>
     <row r="168" spans="3:4">
-      <c r="C168" s="1"/>
-      <c r="D168" s="1"/>
+      <c r="C168" s="2"/>
+      <c r="D168" s="2"/>
     </row>
     <row r="169" spans="3:4">
-      <c r="C169" s="1"/>
-      <c r="D169" s="1"/>
+      <c r="C169" s="2"/>
+      <c r="D169" s="2"/>
     </row>
     <row r="170" spans="3:4">
-      <c r="C170" s="1"/>
-      <c r="D170" s="1"/>
+      <c r="C170" s="2"/>
+      <c r="D170" s="2"/>
     </row>
     <row r="171" spans="3:4">
-      <c r="C171" s="1"/>
-      <c r="D171" s="1"/>
+      <c r="C171" s="2"/>
+      <c r="D171" s="2"/>
     </row>
     <row r="172" spans="3:4">
-      <c r="C172" s="1"/>
-      <c r="D172" s="1"/>
+      <c r="C172" s="2"/>
+      <c r="D172" s="2"/>
     </row>
     <row r="173" spans="3:4">
-      <c r="C173" s="1"/>
-      <c r="D173" s="1"/>
+      <c r="C173" s="2"/>
+      <c r="D173" s="2"/>
     </row>
     <row r="174" spans="3:4">
-      <c r="C174" s="1"/>
-      <c r="D174" s="1"/>
+      <c r="C174" s="2"/>
+      <c r="D174" s="2"/>
     </row>
     <row r="175" spans="3:4">
-      <c r="C175" s="1"/>
-      <c r="D175" s="1"/>
+      <c r="C175" s="2"/>
+      <c r="D175" s="2"/>
     </row>
     <row r="176" spans="3:4">
-      <c r="C176" s="1"/>
-      <c r="D176" s="1"/>
+      <c r="C176" s="2"/>
+      <c r="D176" s="2"/>
     </row>
     <row r="177" spans="3:4">
-      <c r="C177" s="1"/>
-      <c r="D177" s="1"/>
+      <c r="C177" s="2"/>
+      <c r="D177" s="2"/>
     </row>
     <row r="178" spans="3:4">
-      <c r="C178" s="1"/>
-      <c r="D178" s="1"/>
+      <c r="C178" s="2"/>
+      <c r="D178" s="2"/>
     </row>
     <row r="179" spans="3:4">
-      <c r="C179" s="1"/>
-      <c r="D179" s="1"/>
+      <c r="C179" s="2"/>
+      <c r="D179" s="2"/>
     </row>
     <row r="180" spans="3:4">
-      <c r="C180" s="1"/>
-      <c r="D180" s="1"/>
+      <c r="C180" s="2"/>
+      <c r="D180" s="2"/>
     </row>
     <row r="181" spans="3:4">
-      <c r="C181" s="1"/>
-      <c r="D181" s="1"/>
+      <c r="C181" s="2"/>
+      <c r="D181" s="2"/>
     </row>
     <row r="182" spans="3:4">
-      <c r="C182" s="1"/>
-      <c r="D182" s="1"/>
+      <c r="C182" s="2"/>
+      <c r="D182" s="2"/>
     </row>
     <row r="183" spans="3:4">
-      <c r="C183" s="1"/>
-      <c r="D183" s="1"/>
+      <c r="C183" s="2"/>
+      <c r="D183" s="2"/>
     </row>
     <row r="184" spans="3:4">
-      <c r="C184" s="1"/>
-      <c r="D184" s="1"/>
+      <c r="C184" s="2"/>
+      <c r="D184" s="2"/>
     </row>
     <row r="185" spans="3:4">
-      <c r="C185" s="1"/>
-      <c r="D185" s="1"/>
+      <c r="C185" s="2"/>
+      <c r="D185" s="2"/>
     </row>
     <row r="186" spans="3:4">
-      <c r="C186" s="1"/>
-      <c r="D186" s="1"/>
+      <c r="C186" s="2"/>
+      <c r="D186" s="2"/>
     </row>
     <row r="187" spans="3:4">
-      <c r="C187" s="1"/>
-      <c r="D187" s="1"/>
+      <c r="C187" s="2"/>
+      <c r="D187" s="2"/>
     </row>
     <row r="188" spans="3:4">
-      <c r="C188" s="1"/>
-      <c r="D188" s="1"/>
+      <c r="C188" s="2"/>
+      <c r="D188" s="2"/>
     </row>
     <row r="189" spans="3:4">
-      <c r="C189" s="1"/>
-      <c r="D189" s="1"/>
+      <c r="C189" s="2"/>
+      <c r="D189" s="2"/>
     </row>
     <row r="190" spans="3:4">
-      <c r="C190" s="1"/>
-      <c r="D190" s="1"/>
+      <c r="C190" s="2"/>
+      <c r="D190" s="2"/>
     </row>
     <row r="191" spans="3:4">
-      <c r="C191" s="1"/>
-      <c r="D191" s="1"/>
+      <c r="C191" s="2"/>
+      <c r="D191" s="2"/>
     </row>
     <row r="192" spans="3:4">
-      <c r="C192" s="1"/>
-      <c r="D192" s="1"/>
+      <c r="C192" s="2"/>
+      <c r="D192" s="2"/>
     </row>
     <row r="193" spans="3:4">
-      <c r="C193" s="1"/>
-      <c r="D193" s="1"/>
+      <c r="C193" s="2"/>
+      <c r="D193" s="2"/>
     </row>
     <row r="194" spans="3:4">
-      <c r="C194" s="1"/>
-      <c r="D194" s="1"/>
+      <c r="C194" s="2"/>
+      <c r="D194" s="2"/>
     </row>
     <row r="195" spans="3:4">
-      <c r="C195" s="1"/>
-      <c r="D195" s="1"/>
+      <c r="C195" s="2"/>
+      <c r="D195" s="2"/>
     </row>
     <row r="196" spans="3:4">
-      <c r="C196" s="1"/>
-      <c r="D196" s="1"/>
+      <c r="C196" s="2"/>
+      <c r="D196" s="2"/>
     </row>
     <row r="197" spans="3:4">
-      <c r="C197" s="1"/>
-      <c r="D197" s="1"/>
+      <c r="C197" s="2"/>
+      <c r="D197" s="2"/>
     </row>
     <row r="198" spans="3:4">
-      <c r="C198" s="1"/>
-      <c r="D198" s="1"/>
+      <c r="C198" s="2"/>
+      <c r="D198" s="2"/>
     </row>
     <row r="199" spans="3:4">
-      <c r="C199" s="1"/>
-      <c r="D199" s="1"/>
+      <c r="C199" s="2"/>
+      <c r="D199" s="2"/>
     </row>
     <row r="200" spans="3:4">
-      <c r="C200" s="1"/>
-      <c r="D200" s="1"/>
+      <c r="C200" s="2"/>
+      <c r="D200" s="2"/>
     </row>
     <row r="201" spans="3:4">
-      <c r="C201" s="1"/>
-      <c r="D201" s="1"/>
+      <c r="C201" s="2"/>
+      <c r="D201" s="2"/>
     </row>
     <row r="202" spans="3:4">
-      <c r="C202" s="1"/>
-      <c r="D202" s="1"/>
+      <c r="C202" s="2"/>
+      <c r="D202" s="2"/>
     </row>
     <row r="203" spans="3:4">
-      <c r="C203" s="1"/>
-      <c r="D203" s="1"/>
+      <c r="C203" s="2"/>
+      <c r="D203" s="2"/>
     </row>
     <row r="204" spans="3:4">
-      <c r="C204" s="1"/>
-      <c r="D204" s="1"/>
+      <c r="C204" s="2"/>
+      <c r="D204" s="2"/>
     </row>
     <row r="205" spans="3:4">
-      <c r="C205" s="1"/>
-      <c r="D205" s="1"/>
+      <c r="C205" s="2"/>
+      <c r="D205" s="2"/>
     </row>
     <row r="206" spans="3:4">
-      <c r="C206" s="1"/>
-      <c r="D206" s="1"/>
+      <c r="C206" s="2"/>
+      <c r="D206" s="2"/>
     </row>
     <row r="207" spans="3:4">
-      <c r="C207" s="1"/>
-      <c r="D207" s="1"/>
+      <c r="C207" s="2"/>
+      <c r="D207" s="2"/>
     </row>
     <row r="208" spans="3:4">
-      <c r="C208" s="1"/>
-      <c r="D208" s="1"/>
+      <c r="C208" s="2"/>
+      <c r="D208" s="2"/>
     </row>
     <row r="209" spans="3:4">
-      <c r="C209" s="1"/>
-      <c r="D209" s="1"/>
+      <c r="C209" s="2"/>
+      <c r="D209" s="2"/>
     </row>
     <row r="210" spans="3:4">
-      <c r="C210" s="1"/>
-      <c r="D210" s="1"/>
+      <c r="C210" s="2"/>
+      <c r="D210" s="2"/>
     </row>
     <row r="211" spans="3:4">
-      <c r="C211" s="1"/>
-      <c r="D211" s="1"/>
+      <c r="C211" s="2"/>
+      <c r="D211" s="2"/>
     </row>
     <row r="212" spans="3:4">
-      <c r="C212" s="1"/>
-      <c r="D212" s="1"/>
+      <c r="C212" s="2"/>
+      <c r="D212" s="2"/>
     </row>
     <row r="213" spans="3:4">
-      <c r="C213" s="1"/>
-      <c r="D213" s="1"/>
+      <c r="C213" s="2"/>
+      <c r="D213" s="2"/>
     </row>
     <row r="214" spans="3:4">
-      <c r="C214" s="1"/>
-      <c r="D214" s="1"/>
+      <c r="C214" s="2"/>
+      <c r="D214" s="2"/>
     </row>
     <row r="215" spans="3:4">
-      <c r="C215" s="1"/>
-      <c r="D215" s="1"/>
+      <c r="C215" s="2"/>
+      <c r="D215" s="2"/>
     </row>
     <row r="216" spans="3:4">
-      <c r="C216" s="1"/>
-      <c r="D216" s="1"/>
+      <c r="C216" s="2"/>
+      <c r="D216" s="2"/>
     </row>
     <row r="217" spans="3:4">
-      <c r="C217" s="1"/>
-      <c r="D217" s="1"/>
+      <c r="C217" s="2"/>
+      <c r="D217" s="2"/>
     </row>
     <row r="218" spans="3:4">
-      <c r="C218" s="1"/>
-      <c r="D218" s="1"/>
+      <c r="C218" s="2"/>
+      <c r="D218" s="2"/>
     </row>
     <row r="219" spans="3:4">
-      <c r="C219" s="1"/>
-      <c r="D219" s="1"/>
+      <c r="C219" s="2"/>
+      <c r="D219" s="2"/>
     </row>
     <row r="220" spans="3:4">
-      <c r="C220" s="1"/>
-      <c r="D220" s="1"/>
+      <c r="C220" s="2"/>
+      <c r="D220" s="2"/>
     </row>
     <row r="221" spans="3:4">
-      <c r="C221" s="1"/>
-      <c r="D221" s="1"/>
+      <c r="C221" s="2"/>
+      <c r="D221" s="2"/>
     </row>
     <row r="222" spans="3:4">
-      <c r="C222" s="1"/>
-      <c r="D222" s="1"/>
+      <c r="C222" s="2"/>
+      <c r="D222" s="2"/>
     </row>
     <row r="223" spans="3:4">
-      <c r="C223" s="1"/>
-      <c r="D223" s="1"/>
+      <c r="C223" s="2"/>
+      <c r="D223" s="2"/>
     </row>
     <row r="224" spans="3:4">
-      <c r="C224" s="1"/>
-      <c r="D224" s="1"/>
+      <c r="C224" s="2"/>
+      <c r="D224" s="2"/>
     </row>
     <row r="225" spans="3:4">
-      <c r="C225" s="1"/>
-      <c r="D225" s="1"/>
+      <c r="C225" s="2"/>
+      <c r="D225" s="2"/>
     </row>
     <row r="226" spans="3:4">
-      <c r="C226" s="1"/>
-      <c r="D226" s="1"/>
+      <c r="C226" s="2"/>
+      <c r="D226" s="2"/>
     </row>
     <row r="227" spans="3:4">
-      <c r="C227" s="1"/>
-      <c r="D227" s="1"/>
+      <c r="C227" s="2"/>
+      <c r="D227" s="2"/>
     </row>
     <row r="228" spans="3:4">
-      <c r="C228" s="1"/>
-      <c r="D228" s="1"/>
+      <c r="C228" s="2"/>
+      <c r="D228" s="2"/>
     </row>
     <row r="229" spans="3:4">
-      <c r="C229" s="1"/>
-      <c r="D229" s="1"/>
+      <c r="C229" s="2"/>
+      <c r="D229" s="2"/>
     </row>
     <row r="230" spans="3:4">
-      <c r="C230" s="1"/>
-      <c r="D230" s="1"/>
+      <c r="C230" s="2"/>
+      <c r="D230" s="2"/>
     </row>
     <row r="231" spans="3:4">
-      <c r="C231" s="1"/>
-      <c r="D231" s="1"/>
+      <c r="C231" s="2"/>
+      <c r="D231" s="2"/>
     </row>
     <row r="232" spans="3:4">
-      <c r="C232" s="1"/>
-      <c r="D232" s="1"/>
+      <c r="C232" s="2"/>
+      <c r="D232" s="2"/>
     </row>
     <row r="233" spans="3:4">
-      <c r="C233" s="1"/>
-      <c r="D233" s="1"/>
+      <c r="C233" s="2"/>
+      <c r="D233" s="2"/>
     </row>
     <row r="234" spans="3:4">
-      <c r="C234" s="1"/>
-      <c r="D234" s="1"/>
+      <c r="C234" s="2"/>
+      <c r="D234" s="2"/>
     </row>
     <row r="235" spans="3:4">
-      <c r="C235" s="1"/>
-      <c r="D235" s="1"/>
+      <c r="C235" s="2"/>
+      <c r="D235" s="2"/>
     </row>
     <row r="236" spans="3:4">
-      <c r="C236" s="1"/>
-      <c r="D236" s="1"/>
+      <c r="C236" s="2"/>
+      <c r="D236" s="2"/>
     </row>
     <row r="237" spans="3:4">
-      <c r="C237" s="1"/>
-      <c r="D237" s="1"/>
+      <c r="C237" s="2"/>
+      <c r="D237" s="2"/>
     </row>
     <row r="238" spans="3:4">
-      <c r="C238" s="1"/>
-      <c r="D238" s="1"/>
+      <c r="C238" s="2"/>
+      <c r="D238" s="2"/>
     </row>
     <row r="239" spans="3:4">
-      <c r="C239" s="1"/>
-      <c r="D239" s="1"/>
+      <c r="C239" s="2"/>
+      <c r="D239" s="2"/>
     </row>
     <row r="240" spans="3:4">
-      <c r="C240" s="1"/>
-      <c r="D240" s="1"/>
+      <c r="C240" s="2"/>
+      <c r="D240" s="2"/>
     </row>
     <row r="241" spans="3:4">
-      <c r="C241" s="1"/>
-      <c r="D241" s="1"/>
+      <c r="C241" s="2"/>
+      <c r="D241" s="2"/>
     </row>
     <row r="242" spans="3:4">
-      <c r="C242" s="1"/>
-      <c r="D242" s="1"/>
+      <c r="C242" s="2"/>
+      <c r="D242" s="2"/>
     </row>
     <row r="243" spans="3:4">
-      <c r="C243" s="1"/>
-      <c r="D243" s="1"/>
+      <c r="C243" s="2"/>
+      <c r="D243" s="2"/>
     </row>
     <row r="244" spans="3:4">
-      <c r="C244" s="1"/>
-      <c r="D244" s="1"/>
+      <c r="C244" s="2"/>
+      <c r="D244" s="2"/>
     </row>
     <row r="245" spans="3:4">
-      <c r="C245" s="1"/>
-      <c r="D245" s="1"/>
+      <c r="C245" s="2"/>
+      <c r="D245" s="2"/>
     </row>
     <row r="246" spans="3:4">
-      <c r="C246" s="1"/>
-      <c r="D246" s="1"/>
+      <c r="C246" s="2"/>
+      <c r="D246" s="2"/>
     </row>
     <row r="247" spans="3:4">
-      <c r="C247" s="1"/>
-      <c r="D247" s="1"/>
+      <c r="C247" s="2"/>
+      <c r="D247" s="2"/>
     </row>
     <row r="248" spans="3:4">
-      <c r="C248" s="1"/>
-      <c r="D248" s="1"/>
+      <c r="C248" s="2"/>
+      <c r="D248" s="2"/>
     </row>
     <row r="249" spans="3:4">
-      <c r="C249" s="1"/>
-      <c r="D249" s="1"/>
+      <c r="C249" s="2"/>
+      <c r="D249" s="2"/>
     </row>
     <row r="250" spans="3:4">
-      <c r="C250" s="1"/>
-      <c r="D250" s="1"/>
+      <c r="C250" s="2"/>
+      <c r="D250" s="2"/>
     </row>
     <row r="251" spans="3:4">
-      <c r="C251" s="1"/>
-      <c r="D251" s="1"/>
+      <c r="C251" s="2"/>
+      <c r="D251" s="2"/>
     </row>
     <row r="252" spans="3:4">
-      <c r="C252" s="1"/>
-      <c r="D252" s="1"/>
+      <c r="C252" s="2"/>
+      <c r="D252" s="2"/>
     </row>
     <row r="253" spans="3:4">
-      <c r="C253" s="1"/>
-      <c r="D253" s="1"/>
+      <c r="C253" s="2"/>
+      <c r="D253" s="2"/>
     </row>
     <row r="254" spans="3:4">
-      <c r="C254" s="1"/>
-      <c r="D254" s="1"/>
+      <c r="C254" s="2"/>
+      <c r="D254" s="2"/>
     </row>
     <row r="255" spans="3:4">
-      <c r="C255" s="1"/>
-      <c r="D255" s="1"/>
+      <c r="C255" s="2"/>
+      <c r="D255" s="2"/>
     </row>
     <row r="256" spans="3:4">
-      <c r="C256" s="1"/>
-      <c r="D256" s="1"/>
+      <c r="C256" s="2"/>
+      <c r="D256" s="2"/>
     </row>
     <row r="257" spans="3:4">
-      <c r="C257" s="1"/>
-      <c r="D257" s="1"/>
+      <c r="C257" s="2"/>
+      <c r="D257" s="2"/>
     </row>
     <row r="258" spans="3:4">
-      <c r="C258" s="1"/>
-      <c r="D258" s="1"/>
+      <c r="C258" s="2"/>
+      <c r="D258" s="2"/>
     </row>
     <row r="259" spans="3:4">
-      <c r="C259" s="1"/>
-      <c r="D259" s="1"/>
+      <c r="C259" s="2"/>
+      <c r="D259" s="2"/>
     </row>
     <row r="260" spans="3:4">
-      <c r="C260" s="1"/>
-      <c r="D260" s="1"/>
+      <c r="C260" s="2"/>
+      <c r="D260" s="2"/>
     </row>
     <row r="261" spans="3:4">
-      <c r="C261" s="1"/>
-      <c r="D261" s="1"/>
+      <c r="C261" s="2"/>
+      <c r="D261" s="2"/>
     </row>
     <row r="262" spans="3:4">
-      <c r="C262" s="1"/>
-      <c r="D262" s="1"/>
+      <c r="C262" s="2"/>
+      <c r="D262" s="2"/>
     </row>
     <row r="263" spans="3:4">
-      <c r="C263" s="1"/>
-      <c r="D263" s="1"/>
+      <c r="C263" s="2"/>
+      <c r="D263" s="2"/>
     </row>
     <row r="264" spans="3:4">
-      <c r="C264" s="1"/>
-      <c r="D264" s="1"/>
+      <c r="C264" s="2"/>
+      <c r="D264" s="2"/>
     </row>
     <row r="265" spans="3:4">
-      <c r="C265" s="1"/>
-      <c r="D265" s="1"/>
+      <c r="C265" s="2"/>
+      <c r="D265" s="2"/>
     </row>
     <row r="266" spans="3:4">
-      <c r="C266" s="1"/>
-      <c r="D266" s="1"/>
+      <c r="C266" s="2"/>
+      <c r="D266" s="2"/>
     </row>
     <row r="267" spans="3:4">
-      <c r="C267" s="1"/>
-      <c r="D267" s="1"/>
+      <c r="C267" s="2"/>
+      <c r="D267" s="2"/>
     </row>
     <row r="268" spans="3:4">
-      <c r="C268" s="1"/>
-      <c r="D268" s="1"/>
+      <c r="C268" s="2"/>
+      <c r="D268" s="2"/>
     </row>
     <row r="269" spans="3:4">
-      <c r="C269" s="1"/>
-      <c r="D269" s="1"/>
+      <c r="C269" s="2"/>
+      <c r="D269" s="2"/>
     </row>
     <row r="270" spans="3:4">
-      <c r="C270" s="1"/>
-      <c r="D270" s="1"/>
+      <c r="C270" s="2"/>
+      <c r="D270" s="2"/>
     </row>
     <row r="271" spans="3:4">
-      <c r="C271" s="1"/>
-      <c r="D271" s="1"/>
+      <c r="C271" s="2"/>
+      <c r="D271" s="2"/>
     </row>
     <row r="272" spans="3:4">
-      <c r="C272" s="1"/>
-      <c r="D272" s="1"/>
+      <c r="C272" s="2"/>
+      <c r="D272" s="2"/>
     </row>
     <row r="273" spans="3:4">
-      <c r="C273" s="1"/>
-      <c r="D273" s="1"/>
+      <c r="C273" s="2"/>
+      <c r="D273" s="2"/>
     </row>
     <row r="274" spans="3:4">
-      <c r="C274" s="1"/>
-      <c r="D274" s="1"/>
+      <c r="C274" s="2"/>
+      <c r="D274" s="2"/>
     </row>
     <row r="275" spans="3:4">
-      <c r="C275" s="1"/>
-      <c r="D275" s="1"/>
+      <c r="C275" s="2"/>
+      <c r="D275" s="2"/>
     </row>
     <row r="276" spans="3:4">
-      <c r="C276" s="1"/>
-      <c r="D276" s="1"/>
+      <c r="C276" s="2"/>
+      <c r="D276" s="2"/>
     </row>
     <row r="277" spans="3:4">
-      <c r="C277" s="1"/>
-      <c r="D277" s="1"/>
+      <c r="C277" s="2"/>
+      <c r="D277" s="2"/>
     </row>
     <row r="278" spans="3:4">
-      <c r="C278" s="1"/>
-      <c r="D278" s="1"/>
+      <c r="C278" s="2"/>
+      <c r="D278" s="2"/>
     </row>
     <row r="279" spans="3:4">
-      <c r="C279" s="1"/>
-      <c r="D279" s="1"/>
+      <c r="C279" s="2"/>
+      <c r="D279" s="2"/>
     </row>
     <row r="280" spans="3:4">
-      <c r="C280" s="1"/>
-      <c r="D280" s="1"/>
+      <c r="C280" s="2"/>
+      <c r="D280" s="2"/>
     </row>
     <row r="281" spans="3:4">
-      <c r="C281" s="1"/>
-      <c r="D281" s="1"/>
+      <c r="C281" s="2"/>
+      <c r="D281" s="2"/>
     </row>
     <row r="282" spans="3:4">
-      <c r="C282" s="1"/>
-      <c r="D282" s="1"/>
+      <c r="C282" s="2"/>
+      <c r="D282" s="2"/>
     </row>
     <row r="283" spans="3:4">
-      <c r="C283" s="1"/>
-      <c r="D283" s="1"/>
+      <c r="C283" s="2"/>
+      <c r="D283" s="2"/>
     </row>
     <row r="284" spans="3:4">
-      <c r="C284" s="1"/>
-      <c r="D284" s="1"/>
+      <c r="C284" s="2"/>
+      <c r="D284" s="2"/>
     </row>
     <row r="285" spans="3:4">
-      <c r="C285" s="1"/>
-      <c r="D285" s="1"/>
+      <c r="C285" s="2"/>
+      <c r="D285" s="2"/>
     </row>
     <row r="286" spans="3:4">
-      <c r="C286" s="1"/>
-      <c r="D286" s="1"/>
+      <c r="C286" s="2"/>
+      <c r="D286" s="2"/>
     </row>
     <row r="287" spans="3:4">
-      <c r="C287" s="1"/>
-      <c r="D287" s="1"/>
+      <c r="C287" s="2"/>
+      <c r="D287" s="2"/>
     </row>
     <row r="288" spans="3:4">
-      <c r="C288" s="1"/>
-      <c r="D288" s="1"/>
+      <c r="C288" s="2"/>
+      <c r="D288" s="2"/>
     </row>
     <row r="289" spans="3:4">
-      <c r="C289" s="1"/>
-      <c r="D289" s="1"/>
+      <c r="C289" s="2"/>
+      <c r="D289" s="2"/>
     </row>
     <row r="290" spans="3:4">
-      <c r="C290" s="1"/>
-      <c r="D290" s="1"/>
+      <c r="C290" s="2"/>
+      <c r="D290" s="2"/>
     </row>
     <row r="291" spans="3:4">
-      <c r="C291" s="1"/>
-      <c r="D291" s="1"/>
+      <c r="C291" s="2"/>
+      <c r="D291" s="2"/>
     </row>
     <row r="292" spans="3:4">
-      <c r="C292" s="1"/>
-      <c r="D292" s="1"/>
+      <c r="C292" s="2"/>
+      <c r="D292" s="2"/>
     </row>
     <row r="293" spans="3:4">
-      <c r="C293" s="1"/>
-      <c r="D293" s="1"/>
+      <c r="C293" s="2"/>
+      <c r="D293" s="2"/>
     </row>
     <row r="294" spans="3:4">
-      <c r="C294" s="1"/>
-      <c r="D294" s="1"/>
+      <c r="C294" s="2"/>
+      <c r="D294" s="2"/>
     </row>
     <row r="295" spans="3:4">
-      <c r="C295" s="1"/>
-      <c r="D295" s="1"/>
+      <c r="C295" s="2"/>
+      <c r="D295" s="2"/>
     </row>
     <row r="296" spans="3:4">
-      <c r="C296" s="1"/>
-      <c r="D296" s="1"/>
+      <c r="C296" s="2"/>
+      <c r="D296" s="2"/>
     </row>
     <row r="297" spans="3:4">
-      <c r="C297" s="1"/>
-      <c r="D297" s="1"/>
+      <c r="C297" s="2"/>
+      <c r="D297" s="2"/>
     </row>
     <row r="298" spans="3:4">
-      <c r="C298" s="1"/>
-      <c r="D298" s="1"/>
+      <c r="C298" s="2"/>
+      <c r="D298" s="2"/>
     </row>
     <row r="299" spans="3:4">
-      <c r="C299" s="1"/>
-      <c r="D299" s="1"/>
+      <c r="C299" s="2"/>
+      <c r="D299" s="2"/>
     </row>
     <row r="300" spans="3:4">
-      <c r="C300" s="1"/>
-      <c r="D300" s="1"/>
+      <c r="C300" s="2"/>
+      <c r="D300" s="2"/>
     </row>
     <row r="301" spans="3:4">
-      <c r="C301" s="1"/>
-      <c r="D301" s="1"/>
+      <c r="C301" s="2"/>
+      <c r="D301" s="2"/>
     </row>
     <row r="302" spans="3:4">
-      <c r="C302" s="1"/>
-      <c r="D302" s="1"/>
+      <c r="C302" s="2"/>
+      <c r="D302" s="2"/>
     </row>
     <row r="303" spans="3:4">
-      <c r="C303" s="1"/>
-      <c r="D303" s="1"/>
+      <c r="C303" s="2"/>
+      <c r="D303" s="2"/>
     </row>
     <row r="304" spans="3:4">
-      <c r="C304" s="1"/>
-      <c r="D304" s="1"/>
+      <c r="C304" s="2"/>
+      <c r="D304" s="2"/>
     </row>
     <row r="305" spans="3:4">
-      <c r="C305" s="1"/>
-      <c r="D305" s="1"/>
+      <c r="C305" s="2"/>
+      <c r="D305" s="2"/>
     </row>
     <row r="306" spans="3:4">
-      <c r="C306" s="1"/>
-      <c r="D306" s="1"/>
+      <c r="C306" s="2"/>
+      <c r="D306" s="2"/>
     </row>
     <row r="307" spans="3:4">
-      <c r="C307" s="1"/>
-      <c r="D307" s="1"/>
+      <c r="C307" s="2"/>
+      <c r="D307" s="2"/>
     </row>
     <row r="308" spans="3:4">
-      <c r="C308" s="1"/>
-      <c r="D308" s="1"/>
+      <c r="C308" s="2"/>
+      <c r="D308" s="2"/>
     </row>
     <row r="309" spans="3:4">
-      <c r="C309" s="1"/>
-      <c r="D309" s="1"/>
+      <c r="C309" s="2"/>
+      <c r="D309" s="2"/>
     </row>
     <row r="310" spans="3:4">
-      <c r="C310" s="1"/>
-      <c r="D310" s="1"/>
+      <c r="C310" s="2"/>
+      <c r="D310" s="2"/>
     </row>
     <row r="311" spans="3:4">
-      <c r="C311" s="1"/>
-      <c r="D311" s="1"/>
+      <c r="C311" s="2"/>
+      <c r="D311" s="2"/>
     </row>
     <row r="312" spans="3:4">
-      <c r="C312" s="1"/>
-      <c r="D312" s="1"/>
+      <c r="C312" s="2"/>
+      <c r="D312" s="2"/>
     </row>
     <row r="313" spans="3:4">
-      <c r="C313" s="1"/>
-      <c r="D313" s="1"/>
+      <c r="C313" s="2"/>
+      <c r="D313" s="2"/>
     </row>
     <row r="314" spans="3:4">
-      <c r="C314" s="1"/>
-      <c r="D314" s="1"/>
+      <c r="C314" s="2"/>
+      <c r="D314" s="2"/>
     </row>
     <row r="315" spans="3:4">
-      <c r="C315" s="1"/>
-      <c r="D315" s="1"/>
+      <c r="C315" s="2"/>
+      <c r="D315" s="2"/>
     </row>
     <row r="316" spans="3:4">
-      <c r="C316" s="1"/>
-      <c r="D316" s="1"/>
+      <c r="C316" s="2"/>
+      <c r="D316" s="2"/>
     </row>
     <row r="317" spans="3:4">
-      <c r="C317" s="1"/>
-      <c r="D317" s="1"/>
+      <c r="C317" s="2"/>
+      <c r="D317" s="2"/>
     </row>
     <row r="318" spans="3:4">
-      <c r="C318" s="1"/>
-      <c r="D318" s="1"/>
+      <c r="C318" s="2"/>
+      <c r="D318" s="2"/>
     </row>
     <row r="319" spans="3:4">
-      <c r="C319" s="1"/>
-      <c r="D319" s="1"/>
+      <c r="C319" s="2"/>
+      <c r="D319" s="2"/>
     </row>
     <row r="320" spans="3:4">
-      <c r="C320" s="1"/>
-      <c r="D320" s="1"/>
+      <c r="C320" s="2"/>
+      <c r="D320" s="2"/>
     </row>
     <row r="321" spans="3:4">
-      <c r="C321" s="1"/>
-      <c r="D321" s="1"/>
+      <c r="C321" s="2"/>
+      <c r="D321" s="2"/>
     </row>
     <row r="322" spans="3:4">
-      <c r="C322" s="1"/>
-      <c r="D322" s="1"/>
+      <c r="C322" s="2"/>
+      <c r="D322" s="2"/>
     </row>
     <row r="323" spans="3:4">
-      <c r="C323" s="1"/>
-      <c r="D323" s="1"/>
+      <c r="C323" s="2"/>
+      <c r="D323" s="2"/>
     </row>
     <row r="324" spans="3:4">
-      <c r="C324" s="1"/>
-      <c r="D324" s="1"/>
+      <c r="C324" s="2"/>
+      <c r="D324" s="2"/>
     </row>
     <row r="325" spans="3:4">
-      <c r="C325" s="1"/>
-      <c r="D325" s="1"/>
+      <c r="C325" s="2"/>
+      <c r="D325" s="2"/>
     </row>
     <row r="326" spans="3:4">
-      <c r="C326" s="1"/>
-      <c r="D326" s="1"/>
+      <c r="C326" s="2"/>
+      <c r="D326" s="2"/>
     </row>
     <row r="327" spans="3:4">
-      <c r="C327" s="1"/>
-      <c r="D327" s="1"/>
+      <c r="C327" s="2"/>
+      <c r="D327" s="2"/>
     </row>
     <row r="328" spans="3:4">
-      <c r="C328" s="1"/>
-      <c r="D328" s="1"/>
+      <c r="C328" s="2"/>
+      <c r="D328" s="2"/>
     </row>
     <row r="329" spans="3:4">
-      <c r="C329" s="1"/>
-      <c r="D329" s="1"/>
+      <c r="C329" s="2"/>
+      <c r="D329" s="2"/>
     </row>
     <row r="330" spans="3:4">
-      <c r="C330" s="1"/>
-      <c r="D330" s="1"/>
+      <c r="C330" s="2"/>
+      <c r="D330" s="2"/>
     </row>
     <row r="331" spans="3:4">
-      <c r="C331" s="1"/>
-      <c r="D331" s="1"/>
+      <c r="C331" s="2"/>
+      <c r="D331" s="2"/>
     </row>
     <row r="332" spans="3:4">
-      <c r="C332" s="1"/>
-      <c r="D332" s="1"/>
+      <c r="C332" s="2"/>
+      <c r="D332" s="2"/>
     </row>
     <row r="333" spans="3:4">
-      <c r="C333" s="1"/>
-      <c r="D333" s="1"/>
+      <c r="C333" s="2"/>
+      <c r="D333" s="2"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:F100000">
@@ -1808,10 +1809,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>6</v>
       </c>
     </row>

--- a/assets/Correction_log_template.xlsx
+++ b/assets/Correction_log_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mehrab Ali\Documents\GitHub\arceddataflow\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8995119A-35A1-41D4-8406-65DD20B1E45C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4318B35D-2149-4CBC-8266-984BD51398B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
   <si>
     <t>key</t>
   </si>
@@ -93,16 +93,35 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color theme="0"/>
@@ -429,10 +448,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="43" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="45.28515625" customWidth="1"/>
+    <col min="2" max="2" width="23.140625" customWidth="1"/>
+    <col min="3" max="4" width="17.140625" customWidth="1"/>
     <col min="5" max="5" width="40.42578125" customWidth="1"/>
     <col min="6" max="6" width="34.85546875" customWidth="1"/>
   </cols>
@@ -1787,7 +1805,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:F100000">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="2" priority="1">
       <formula>$F2="Value could not be changed"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1798,25 +1816,34 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{012DE368-5203-49A4-9CE1-CF15AB7B23CA}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="54.7109375" customWidth="1"/>
+    <col min="1" max="1" width="56.5703125" customWidth="1"/>
     <col min="2" max="2" width="60.28515625" customWidth="1"/>
+    <col min="3" max="3" width="38.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="A2">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>$F2="Drop unsucessfull"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/assets/Correction_log_template.xlsx
+++ b/assets/Correction_log_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mehrab Ali\Documents\GitHub\arceddataflow\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4318B35D-2149-4CBC-8266-984BD51398B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAF8563E-F0AA-4F40-B2D2-188F288DED90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -448,7 +448,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="45.28515625" customWidth="1"/>
+    <col min="1" max="1" width="48.28515625" customWidth="1"/>
     <col min="2" max="2" width="23.140625" customWidth="1"/>
     <col min="3" max="4" width="17.140625" customWidth="1"/>
     <col min="5" max="5" width="40.42578125" customWidth="1"/>
@@ -1839,9 +1839,9 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A2">
+  <conditionalFormatting sqref="A2:A1000000">
     <cfRule type="expression" dxfId="1" priority="1">
-      <formula>$F2="Drop unsucessfull"</formula>
+      <formula>$C2="Drop unsucessfull"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/assets/Correction_log_template.xlsx
+++ b/assets/Correction_log_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mehrab Ali\Documents\GitHub\arceddataflow\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAF8563E-F0AA-4F40-B2D2-188F288DED90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50783681-48B1-485B-8659-EED55E38F832}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1839,7 +1839,7 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:A1000000">
+  <conditionalFormatting sqref="A2:C1000000">
     <cfRule type="expression" dxfId="1" priority="1">
       <formula>$C2="Drop unsucessfull"</formula>
     </cfRule>
